--- a/biology/Botanique/Salvia_farinacea/Salvia_farinacea.xlsx
+++ b/biology/Botanique/Salvia_farinacea/Salvia_farinacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvia farinacea, la Sauge bleue, est une espèce de plantes herbacées vivace native du Mexique, de la famille des Lamiaceae. Elle atteint une hauteur de 50 cm. 
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait partie du genre des sauges (Salvia) dans la famille des Lamiaceae.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très étonnante floraison d'un aspect duveteux, cette sauge tient son nom de ces inflorescences très douces. Elle se cultive comme une vivace dans les régions à climat très doux, comme annuelle ailleurs. Des épis de fleurs bleues ou blanches selon la variété s'élèvent au-dessus du feuillage pendant tout l'été. 
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (8 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (8 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Salvia farinacea var. blue royal
 variété Salvia farinacea var. heteranthera Brandegee
 variété Salvia farinacea var. latifolia Shinners
